--- a/all_results.xlsx
+++ b/all_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A2675-71D2-49BC-BA7C-AF2C2FE38A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADADA1B4-346C-4461-BA9F-0858C41A146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17880" yWindow="3795" windowWidth="15120" windowHeight="10845" tabRatio="665" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="2892" yWindow="2868" windowWidth="17280" windowHeight="8964" tabRatio="665" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="FHN-new" sheetId="14" r:id="rId1"/>
@@ -1094,51 +1094,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1159,9 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1884,53 +1884,53 @@
       <selection activeCell="D26" sqref="D26:S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="47" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" style="47"/>
-    <col min="8" max="8" width="8.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="47"/>
+    <col min="1" max="1" width="8.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="47" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="47"/>
+    <col min="8" max="8" width="8.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="101" t="s">
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="106" t="s">
         <v>19</v>
       </c>
       <c r="T1" s="50"/>
@@ -1938,10 +1938,10 @@
       <c r="V1" s="49"/>
       <c r="W1" s="49"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
       <c r="D2" s="77" t="s">
         <v>20</v>
       </c>
@@ -1987,17 +1987,17 @@
       <c r="R2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="102"/>
+      <c r="S2" s="107"/>
       <c r="T2" s="50"/>
       <c r="U2" s="49"/>
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+    <row r="3" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="82" t="s">
@@ -2061,9 +2061,9 @@
       <c r="V3" s="66"/>
       <c r="W3" s="66"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="75" t="s">
         <v>53</v>
       </c>
@@ -2122,9 +2122,9 @@
       <c r="V4" s="66"/>
       <c r="W4" s="66"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="70" t="s">
         <v>50</v>
       </c>
@@ -2155,9 +2155,9 @@
       <c r="V5" s="66"/>
       <c r="W5" s="66"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="75" t="s">
         <v>51</v>
       </c>
@@ -2216,9 +2216,9 @@
       <c r="V6" s="66"/>
       <c r="W6" s="66"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="75" t="s">
         <v>15</v>
       </c>
@@ -2277,9 +2277,9 @@
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="106" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="103"/>
+      <c r="B8" s="104" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="78" t="s">
@@ -2343,9 +2343,9 @@
       </c>
       <c r="W8" s="66"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
-      <c r="B9" s="106"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="103"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
@@ -2404,9 +2404,9 @@
       <c r="V9" s="66"/>
       <c r="W9" s="66"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="106"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="70" t="s">
         <v>50</v>
       </c>
@@ -2431,9 +2431,9 @@
       <c r="V10" s="66"/>
       <c r="W10" s="66"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="106"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="103"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="92" t="s">
         <v>51</v>
       </c>
@@ -2492,9 +2492,9 @@
       <c r="V11" s="66"/>
       <c r="W11" s="66"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="106"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="103"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="75" t="s">
         <v>15</v>
       </c>
@@ -2553,9 +2553,9 @@
       <c r="V12" s="49"/>
       <c r="W12" s="49"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="106" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="103"/>
+      <c r="B13" s="104" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="78" t="s">
@@ -2617,9 +2617,9 @@
       <c r="V13" s="49"/>
       <c r="W13" s="49"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="106"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="103"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="75" t="s">
         <v>53</v>
       </c>
@@ -2678,9 +2678,9 @@
       <c r="V14" s="50"/>
       <c r="W14" s="50"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="106"/>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="103"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="70" t="s">
         <v>50</v>
       </c>
@@ -2711,9 +2711,9 @@
       <c r="V15" s="50"/>
       <c r="W15" s="50"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="106"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="75" t="s">
         <v>51</v>
       </c>
@@ -2772,9 +2772,9 @@
       <c r="V16" s="49"/>
       <c r="W16" s="49"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="106"/>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="103"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="75" t="s">
         <v>15</v>
       </c>
@@ -2833,9 +2833,9 @@
       <c r="V17" s="49"/>
       <c r="W17" s="49"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="106" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="103"/>
+      <c r="B18" s="104" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="78" t="s">
@@ -2897,9 +2897,9 @@
       <c r="V18" s="49"/>
       <c r="W18" s="49"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="106"/>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="103"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="75" t="s">
         <v>53</v>
       </c>
@@ -2958,9 +2958,9 @@
       <c r="V19" s="50"/>
       <c r="W19" s="49"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="107"/>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="106"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="70" t="s">
         <v>50</v>
       </c>
@@ -2991,9 +2991,9 @@
       <c r="V20" s="50"/>
       <c r="W20" s="50"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="107"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="106"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="75" t="s">
         <v>51</v>
       </c>
@@ -3052,9 +3052,9 @@
       <c r="V21" s="50"/>
       <c r="W21" s="50"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="105"/>
-      <c r="B22" s="108"/>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="108"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="71" t="s">
         <v>15</v>
       </c>
@@ -3113,11 +3113,11 @@
       <c r="V22" s="49"/>
       <c r="W22" s="49"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="103" t="s">
+    <row r="23" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="102" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="78" t="s">
@@ -3176,9 +3176,9 @@
       </c>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="103"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="75" t="s">
         <v>53</v>
       </c>
@@ -3237,9 +3237,9 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="103"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="70" t="s">
         <v>50</v>
       </c>
@@ -3270,9 +3270,9 @@
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="103"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="75" t="s">
         <v>51</v>
       </c>
@@ -3331,9 +3331,9 @@
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="103"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="75" t="s">
         <v>15</v>
       </c>
@@ -3392,9 +3392,9 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="106" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="103"/>
+      <c r="B28" s="104" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="78" t="s">
@@ -3456,9 +3456,9 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="106"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="103"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="75" t="s">
         <v>53</v>
       </c>
@@ -3518,9 +3518,9 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="106"/>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="103"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="70" t="s">
         <v>50</v>
       </c>
@@ -3551,9 +3551,9 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="104"/>
-      <c r="B31" s="106"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="103"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="75" t="s">
         <v>51</v>
       </c>
@@ -3612,9 +3612,9 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="104"/>
-      <c r="B32" s="106"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="75" t="s">
         <v>15</v>
       </c>
@@ -3673,9 +3673,9 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="104"/>
-      <c r="B33" s="106" t="s">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="103"/>
+      <c r="B33" s="104" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="78" t="s">
@@ -3737,9 +3737,9 @@
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="104"/>
-      <c r="B34" s="106"/>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="103"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="75" t="s">
         <v>53</v>
       </c>
@@ -3798,9 +3798,9 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="104"/>
-      <c r="B35" s="106"/>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="103"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="76" t="s">
         <v>50</v>
       </c>
@@ -3831,9 +3831,9 @@
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="104"/>
-      <c r="B36" s="106"/>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="103"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="75" t="s">
         <v>51</v>
       </c>
@@ -3892,9 +3892,9 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
-      <c r="B37" s="106"/>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="103"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="75" t="s">
         <v>15</v>
       </c>
@@ -3953,9 +3953,9 @@
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="104"/>
-      <c r="B38" s="106" t="s">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="103"/>
+      <c r="B38" s="104" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="78" t="s">
@@ -4017,9 +4017,9 @@
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="104"/>
-      <c r="B39" s="106"/>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="103"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="75" t="s">
         <v>53</v>
       </c>
@@ -4078,9 +4078,9 @@
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="104"/>
-      <c r="B40" s="107"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="103"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="76" t="s">
         <v>50</v>
       </c>
@@ -4111,9 +4111,9 @@
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="104"/>
-      <c r="B41" s="107"/>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="103"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="76" t="s">
         <v>51</v>
       </c>
@@ -4172,9 +4172,9 @@
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="104"/>
-      <c r="B42" s="107"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="103"/>
+      <c r="B42" s="105"/>
       <c r="C42" s="75" t="s">
         <v>15</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="27"/>
       <c r="C43" s="10"/>
@@ -4253,7 +4253,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="48"/>
       <c r="C44" s="10"/>
@@ -4273,7 +4273,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="48"/>
       <c r="C45" s="10"/>
@@ -4293,7 +4293,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="48"/>
       <c r="C46" s="10"/>
@@ -4313,7 +4313,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="48"/>
       <c r="C47" s="10"/>
@@ -4333,7 +4333,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="64"/>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
@@ -4354,7 +4354,7 @@
       <c r="R48" s="63"/>
       <c r="S48" s="63"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="64"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
@@ -4375,7 +4375,7 @@
       <c r="R49" s="63"/>
       <c r="S49" s="63"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="64"/>
       <c r="B50" s="64"/>
       <c r="C50" s="50"/>
@@ -4396,7 +4396,7 @@
       <c r="R50" s="63"/>
       <c r="S50" s="63"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="64"/>
       <c r="B51" s="64"/>
       <c r="C51" s="50"/>
@@ -4417,7 +4417,7 @@
       <c r="R51" s="63"/>
       <c r="S51" s="63"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="64"/>
       <c r="B52" s="64"/>
       <c r="C52" s="50"/>
@@ -4438,7 +4438,7 @@
       <c r="R52" s="63"/>
       <c r="S52" s="63"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="64"/>
       <c r="B53" s="65"/>
       <c r="C53" s="50"/>
@@ -4459,7 +4459,7 @@
       <c r="R53" s="63"/>
       <c r="S53" s="63"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="64"/>
       <c r="B54" s="65"/>
       <c r="C54" s="50"/>
@@ -4480,7 +4480,7 @@
       <c r="R54" s="63"/>
       <c r="S54" s="63"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="64"/>
       <c r="B55" s="65"/>
       <c r="C55" s="50"/>
@@ -4501,7 +4501,7 @@
       <c r="R55" s="63"/>
       <c r="S55" s="63"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="64"/>
       <c r="B56" s="65"/>
       <c r="C56" s="50"/>
@@ -4522,7 +4522,7 @@
       <c r="R56" s="63"/>
       <c r="S56" s="63"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="64"/>
       <c r="B57" s="65"/>
       <c r="C57" s="50"/>
@@ -4543,7 +4543,7 @@
       <c r="R57" s="63"/>
       <c r="S57" s="63"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="64"/>
       <c r="B58" s="65"/>
       <c r="C58" s="50"/>
@@ -4564,7 +4564,7 @@
       <c r="R58" s="63"/>
       <c r="S58" s="63"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="64"/>
       <c r="B59" s="65"/>
       <c r="C59" s="50"/>
@@ -4585,7 +4585,7 @@
       <c r="R59" s="63"/>
       <c r="S59" s="63"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="64"/>
       <c r="B60" s="65"/>
       <c r="C60" s="50"/>
@@ -4606,7 +4606,7 @@
       <c r="R60" s="63"/>
       <c r="S60" s="63"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="64"/>
       <c r="B61" s="65"/>
       <c r="C61" s="50"/>
@@ -4627,7 +4627,7 @@
       <c r="R61" s="63"/>
       <c r="S61" s="63"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="64"/>
       <c r="B62" s="64"/>
       <c r="C62" s="50"/>
@@ -4648,7 +4648,7 @@
       <c r="R62" s="63"/>
       <c r="S62" s="63"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="64"/>
       <c r="B63" s="64"/>
       <c r="C63" s="50"/>
@@ -4669,7 +4669,7 @@
       <c r="R63" s="63"/>
       <c r="S63" s="63"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="64"/>
       <c r="B64" s="64"/>
       <c r="C64" s="23"/>
@@ -4690,7 +4690,7 @@
       <c r="R64" s="63"/>
       <c r="S64" s="63"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="64"/>
       <c r="B65" s="65"/>
       <c r="C65" s="50"/>
@@ -4711,7 +4711,7 @@
       <c r="R65" s="63"/>
       <c r="S65" s="63"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="64"/>
       <c r="B66" s="65"/>
       <c r="C66" s="50"/>
@@ -4732,7 +4732,7 @@
       <c r="R66" s="63"/>
       <c r="S66" s="63"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="64"/>
       <c r="B67" s="65"/>
       <c r="C67" s="50"/>
@@ -4753,7 +4753,7 @@
       <c r="R67" s="63"/>
       <c r="S67" s="63"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="64"/>
       <c r="B68" s="65"/>
       <c r="C68" s="50"/>
@@ -4774,7 +4774,7 @@
       <c r="R68" s="63"/>
       <c r="S68" s="63"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="64"/>
       <c r="B69" s="65"/>
       <c r="C69" s="50"/>
@@ -4795,7 +4795,7 @@
       <c r="R69" s="63"/>
       <c r="S69" s="63"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="64"/>
       <c r="B70" s="65"/>
       <c r="C70" s="50"/>
@@ -4816,7 +4816,7 @@
       <c r="R70" s="63"/>
       <c r="S70" s="63"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="64"/>
       <c r="B71" s="65"/>
       <c r="C71" s="50"/>
@@ -4837,7 +4837,7 @@
       <c r="R71" s="63"/>
       <c r="S71" s="63"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="64"/>
       <c r="B72" s="65"/>
       <c r="C72" s="50"/>
@@ -4858,7 +4858,7 @@
       <c r="R72" s="63"/>
       <c r="S72" s="63"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="64"/>
       <c r="B73" s="65"/>
       <c r="C73" s="50"/>
@@ -4879,7 +4879,7 @@
       <c r="R73" s="63"/>
       <c r="S73" s="63"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="63"/>
       <c r="B74" s="63"/>
       <c r="C74" s="63"/>
@@ -4902,11 +4902,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B42"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="B3:B7"/>
@@ -4919,6 +4914,11 @@
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4930,23 +4930,23 @@
   <dimension ref="B3:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="69"/>
-    <col min="5" max="6" width="12.5703125" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="69"/>
-    <col min="8" max="8" width="10.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.85546875" style="69"/>
-    <col min="12" max="12" width="17.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="69"/>
+    <col min="1" max="2" width="11.88671875" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="69"/>
+    <col min="5" max="6" width="12.5546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="69"/>
+    <col min="8" max="8" width="10.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="69"/>
+    <col min="12" max="12" width="17.88671875" style="69" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="69"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="98" t="s">
         <v>86</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="100">
         <v>10</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="93">
         <v>20</v>
       </c>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="G5" s="94"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="93">
         <v>30</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="93">
         <v>40</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="93">
         <v>50</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="93">
         <v>60</v>
       </c>
@@ -5066,24 +5066,24 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="93">
         <v>70</v>
       </c>
       <c r="C10" s="93">
-        <v>0.76670000000000005</v>
+        <v>0.77210000000000001</v>
       </c>
       <c r="D10" s="93">
-        <v>0.23710000000000001</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="E10" s="95">
-        <v>-1.2699999999999999E-2</v>
+        <v>-1.52E-2</v>
       </c>
       <c r="F10" s="95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="93">
         <v>80</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="93">
         <v>90</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="96">
         <v>100</v>
       </c>
@@ -5134,26 +5134,26 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="123"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="123"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="123"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="123"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="123"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="123"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="123"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="101"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="101"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="101"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="101"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="101"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="101"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5169,24 +5169,24 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="21.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -5197,53 +5197,53 @@
       <c r="I1" s="57"/>
       <c r="J1" s="57"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="116" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="118" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="61"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="116"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="115"/>
-      <c r="J3" s="118"/>
+      <c r="J3" s="119"/>
       <c r="K3" s="61"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="110" t="s">
         <v>5</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="K4" s="62"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="56" t="s">
         <v>8</v>
@@ -5309,7 +5309,7 @@
       <c r="K5" s="62"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="112" t="s">
         <v>7</v>
       </c>
@@ -5343,7 +5343,7 @@
       <c r="K6" s="62"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="113"/>
       <c r="B7" s="56" t="s">
         <v>49</v>
@@ -5376,7 +5376,7 @@
       <c r="L7" s="2"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5388,7 +5388,7 @@
       <c r="I9" s="3"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5402,7 +5402,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="74"/>
       <c r="C11" s="74"/>
@@ -5416,7 +5416,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
@@ -5430,7 +5430,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="74"/>
       <c r="B13" s="43"/>
       <c r="C13" s="69"/>
@@ -5444,7 +5444,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="74"/>
       <c r="B14" s="43"/>
       <c r="C14" s="69"/>
@@ -5458,7 +5458,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="74"/>
       <c r="B15" s="43"/>
       <c r="C15" s="69"/>
@@ -5472,7 +5472,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="74"/>
       <c r="B16" s="43"/>
       <c r="C16" s="69"/>
@@ -5486,7 +5486,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="74"/>
       <c r="B17" s="43"/>
       <c r="C17" s="69"/>
@@ -5500,7 +5500,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="74"/>
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
@@ -5514,7 +5514,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="74"/>
       <c r="B19" s="43"/>
       <c r="C19" s="69"/>
@@ -5528,7 +5528,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="74"/>
       <c r="B20" s="43"/>
       <c r="C20" s="69"/>
@@ -5540,7 +5540,7 @@
       <c r="I20" s="69"/>
       <c r="J20" s="69"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="74"/>
       <c r="B21" s="43"/>
       <c r="C21" s="69"/>
@@ -5552,7 +5552,7 @@
       <c r="I21" s="69"/>
       <c r="J21" s="69"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="74"/>
       <c r="B22" s="43"/>
       <c r="C22" s="69"/>
@@ -5564,7 +5564,7 @@
       <c r="I22" s="69"/>
       <c r="J22" s="69"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5576,7 +5576,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -5588,7 +5588,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5621,9 +5621,9 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>32</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>-0.15260000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>-0.14319999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>-0.1489</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>-0.1489</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>-0.12809999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>-0.17749999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>-0.1489</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>-0.15260000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>-0.17749999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>-0.124</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>-0.14319999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>-0.14319999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>-0.13550000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>-0.16039999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>-0.1661</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>-0.1298</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>-0.1069</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -8583,9 +8583,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>32</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>-0.19120000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>-0.19040000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>-0.151</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>-0.15340000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>-0.1449</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>-0.1477</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>-0.15790000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>-0.155</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>-9.2200000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>-0.16839999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>-8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>-0.1145</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>-0.13650000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>-8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>-4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>-0.14080000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>-0.17610000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>-0.13739999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>-1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>-0.17330000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>-0.1545</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>-0.1641</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>-4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>-0.18090000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>-0.1953</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>-0.21210000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>-0.2147</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>-9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>-8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>

--- a/all_results.xlsx
+++ b/all_results.xlsx
@@ -5,19 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADADA1B4-346C-4461-BA9F-0858C41A146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA8538-8AC0-41A0-9FD1-3E44EAD8311B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="2868" windowWidth="17280" windowHeight="8964" tabRatio="665" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="FHN-new" sheetId="14" r:id="rId1"/>
-    <sheet name="Large federation" sheetId="17" r:id="rId2"/>
-    <sheet name="compas-Param and Arch" sheetId="8" r:id="rId3"/>
-    <sheet name="4-layer-compas-hp" sheetId="15" r:id="rId4"/>
-    <sheet name="4-layer-adult-hp" sheetId="16" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId2"/>
+    <sheet name="Large federation" sheetId="17" r:id="rId3"/>
+    <sheet name="compas-Param and Arch" sheetId="8" r:id="rId4"/>
+    <sheet name="4-layer-compas-hp" sheetId="15" r:id="rId5"/>
+    <sheet name="4-layer-adult-hp" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="113">
   <si>
     <t>Accuracy</t>
   </si>
@@ -349,6 +350,57 @@
   </si>
   <si>
     <t>25 min 18 sec</t>
+  </si>
+  <si>
+    <t>19 min 19 sec</t>
+  </si>
+  <si>
+    <t>16 min 18 sec</t>
+  </si>
+  <si>
+    <t>13 min 53 sec</t>
+  </si>
+  <si>
+    <t>6 min 4 sec</t>
+  </si>
+  <si>
+    <t>10 min 11 sec</t>
+  </si>
+  <si>
+    <t>18 min</t>
+  </si>
+  <si>
+    <t>24 min 26 sec</t>
+  </si>
+  <si>
+    <t>21 min 13 sec</t>
+  </si>
+  <si>
+    <t>1 min 26 sec</t>
+  </si>
+  <si>
+    <t>1 min 59 sec</t>
+  </si>
+  <si>
+    <t>1 min 39 sec</t>
+  </si>
+  <si>
+    <t>27 sec</t>
+  </si>
+  <si>
+    <t>1 min 17 sec</t>
+  </si>
+  <si>
+    <t>7 sec</t>
+  </si>
+  <si>
+    <t>18 min 50 sec</t>
+  </si>
+  <si>
+    <t>48 min 16 sec</t>
+  </si>
+  <si>
+    <t>41 min 7 sec</t>
   </si>
 </sst>
 </file>
@@ -802,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1097,10 +1149,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,15 +1172,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1162,6 +1217,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1881,56 +1948,56 @@
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:S26"/>
+      <selection activeCell="S42" sqref="A1:S42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" style="47"/>
-    <col min="8" max="8" width="8.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="47"/>
+    <col min="1" max="1" width="8.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" style="47"/>
+    <col min="8" max="8" width="8.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103" t="s">
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="106" t="s">
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="103" t="s">
         <v>19</v>
       </c>
       <c r="T1" s="50"/>
@@ -1938,10 +2005,10 @@
       <c r="V1" s="49"/>
       <c r="W1" s="49"/>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
       <c r="D2" s="77" t="s">
         <v>20</v>
       </c>
@@ -1987,17 +2054,17 @@
       <c r="R2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="107"/>
+      <c r="S2" s="104"/>
       <c r="T2" s="50"/>
       <c r="U2" s="49"/>
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
     </row>
-    <row r="3" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="105" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="82" t="s">
@@ -2061,9 +2128,9 @@
       <c r="V3" s="66"/>
       <c r="W3" s="66"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="75" t="s">
         <v>53</v>
       </c>
@@ -2122,9 +2189,9 @@
       <c r="V4" s="66"/>
       <c r="W4" s="66"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="70" t="s">
         <v>50</v>
       </c>
@@ -2155,9 +2222,9 @@
       <c r="V5" s="66"/>
       <c r="W5" s="66"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="75" t="s">
         <v>51</v>
       </c>
@@ -2216,9 +2283,9 @@
       <c r="V6" s="66"/>
       <c r="W6" s="66"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="106"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="75" t="s">
         <v>15</v>
       </c>
@@ -2277,9 +2344,9 @@
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+      <c r="B8" s="108" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="78" t="s">
@@ -2343,9 +2410,9 @@
       </c>
       <c r="W8" s="66"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
@@ -2404,9 +2471,9 @@
       <c r="V9" s="66"/>
       <c r="W9" s="66"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="106"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="70" t="s">
         <v>50</v>
       </c>
@@ -2431,9 +2498,9 @@
       <c r="V10" s="66"/>
       <c r="W10" s="66"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
-      <c r="B11" s="104"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="106"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="92" t="s">
         <v>51</v>
       </c>
@@ -2492,9 +2559,9 @@
       <c r="V11" s="66"/>
       <c r="W11" s="66"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="103"/>
-      <c r="B12" s="104"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="75" t="s">
         <v>15</v>
       </c>
@@ -2553,9 +2620,9 @@
       <c r="V12" s="49"/>
       <c r="W12" s="49"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
-      <c r="B13" s="104" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+      <c r="B13" s="108" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="78" t="s">
@@ -2617,9 +2684,9 @@
       <c r="V13" s="49"/>
       <c r="W13" s="49"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="103"/>
-      <c r="B14" s="104"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="75" t="s">
         <v>53</v>
       </c>
@@ -2678,9 +2745,9 @@
       <c r="V14" s="50"/>
       <c r="W14" s="50"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="103"/>
-      <c r="B15" s="104"/>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="70" t="s">
         <v>50</v>
       </c>
@@ -2711,9 +2778,9 @@
       <c r="V15" s="50"/>
       <c r="W15" s="50"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
-      <c r="B16" s="104"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="75" t="s">
         <v>51</v>
       </c>
@@ -2772,9 +2839,9 @@
       <c r="V16" s="49"/>
       <c r="W16" s="49"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="103"/>
-      <c r="B17" s="104"/>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="106"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="75" t="s">
         <v>15</v>
       </c>
@@ -2833,9 +2900,9 @@
       <c r="V17" s="49"/>
       <c r="W17" s="49"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="103"/>
-      <c r="B18" s="104" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="106"/>
+      <c r="B18" s="108" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="78" t="s">
@@ -2897,9 +2964,9 @@
       <c r="V18" s="49"/>
       <c r="W18" s="49"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="103"/>
-      <c r="B19" s="104"/>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="75" t="s">
         <v>53</v>
       </c>
@@ -2958,9 +3025,9 @@
       <c r="V19" s="50"/>
       <c r="W19" s="49"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
-      <c r="B20" s="105"/>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="103"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="70" t="s">
         <v>50</v>
       </c>
@@ -2991,9 +3058,9 @@
       <c r="V20" s="50"/>
       <c r="W20" s="50"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="106"/>
-      <c r="B21" s="105"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="103"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="75" t="s">
         <v>51</v>
       </c>
@@ -3052,9 +3119,9 @@
       <c r="V21" s="50"/>
       <c r="W21" s="50"/>
     </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="108"/>
-      <c r="B22" s="109"/>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="107"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="71" t="s">
         <v>15</v>
       </c>
@@ -3113,11 +3180,11 @@
       <c r="V22" s="49"/>
       <c r="W22" s="49"/>
     </row>
-    <row r="23" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="102" t="s">
+    <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="105" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="78" t="s">
@@ -3176,9 +3243,9 @@
       </c>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="103"/>
-      <c r="B24" s="103"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="106"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="75" t="s">
         <v>53</v>
       </c>
@@ -3237,9 +3304,9 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="103"/>
-      <c r="B25" s="103"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="106"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="70" t="s">
         <v>50</v>
       </c>
@@ -3270,9 +3337,9 @@
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="106"/>
+      <c r="B26" s="106"/>
       <c r="C26" s="75" t="s">
         <v>51</v>
       </c>
@@ -3331,9 +3398,9 @@
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103"/>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="75" t="s">
         <v>15</v>
       </c>
@@ -3392,9 +3459,9 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="103"/>
-      <c r="B28" s="104" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="106"/>
+      <c r="B28" s="108" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="78" t="s">
@@ -3456,9 +3523,9 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="103"/>
-      <c r="B29" s="104"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="106"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="75" t="s">
         <v>53</v>
       </c>
@@ -3518,9 +3585,9 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="103"/>
-      <c r="B30" s="104"/>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="106"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="70" t="s">
         <v>50</v>
       </c>
@@ -3551,9 +3618,9 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="103"/>
-      <c r="B31" s="104"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="106"/>
+      <c r="B31" s="108"/>
       <c r="C31" s="75" t="s">
         <v>51</v>
       </c>
@@ -3612,9 +3679,9 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="103"/>
-      <c r="B32" s="104"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="106"/>
+      <c r="B32" s="108"/>
       <c r="C32" s="75" t="s">
         <v>15</v>
       </c>
@@ -3673,9 +3740,9 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="103"/>
-      <c r="B33" s="104" t="s">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="106"/>
+      <c r="B33" s="108" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="78" t="s">
@@ -3737,9 +3804,9 @@
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="103"/>
-      <c r="B34" s="104"/>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="106"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="75" t="s">
         <v>53</v>
       </c>
@@ -3798,9 +3865,9 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="103"/>
-      <c r="B35" s="104"/>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="106"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="76" t="s">
         <v>50</v>
       </c>
@@ -3831,9 +3898,9 @@
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
-      <c r="B36" s="104"/>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="106"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="75" t="s">
         <v>51</v>
       </c>
@@ -3892,9 +3959,9 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
-      <c r="B37" s="104"/>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="106"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="75" t="s">
         <v>15</v>
       </c>
@@ -3953,9 +4020,9 @@
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="103"/>
-      <c r="B38" s="104" t="s">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="106"/>
+      <c r="B38" s="108" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="78" t="s">
@@ -4017,9 +4084,9 @@
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="103"/>
-      <c r="B39" s="104"/>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="106"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="75" t="s">
         <v>53</v>
       </c>
@@ -4078,9 +4145,9 @@
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="103"/>
-      <c r="B40" s="105"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="106"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="76" t="s">
         <v>50</v>
       </c>
@@ -4111,9 +4178,9 @@
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
-      <c r="B41" s="105"/>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="106"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="76" t="s">
         <v>51</v>
       </c>
@@ -4172,9 +4239,9 @@
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="103"/>
-      <c r="B42" s="105"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="106"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="75" t="s">
         <v>15</v>
       </c>
@@ -4233,7 +4300,7 @@
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="27"/>
       <c r="C43" s="10"/>
@@ -4253,7 +4320,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="48"/>
       <c r="C44" s="10"/>
@@ -4273,7 +4340,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="48"/>
       <c r="C45" s="10"/>
@@ -4293,7 +4360,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="48"/>
       <c r="C46" s="10"/>
@@ -4313,7 +4380,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="48"/>
       <c r="C47" s="10"/>
@@ -4333,7 +4400,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
@@ -4354,7 +4421,7 @@
       <c r="R48" s="63"/>
       <c r="S48" s="63"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="64"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
@@ -4375,7 +4442,7 @@
       <c r="R49" s="63"/>
       <c r="S49" s="63"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
       <c r="B50" s="64"/>
       <c r="C50" s="50"/>
@@ -4396,7 +4463,7 @@
       <c r="R50" s="63"/>
       <c r="S50" s="63"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="64"/>
       <c r="B51" s="64"/>
       <c r="C51" s="50"/>
@@ -4417,7 +4484,7 @@
       <c r="R51" s="63"/>
       <c r="S51" s="63"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="64"/>
       <c r="B52" s="64"/>
       <c r="C52" s="50"/>
@@ -4438,7 +4505,7 @@
       <c r="R52" s="63"/>
       <c r="S52" s="63"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
       <c r="B53" s="65"/>
       <c r="C53" s="50"/>
@@ -4459,7 +4526,7 @@
       <c r="R53" s="63"/>
       <c r="S53" s="63"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="64"/>
       <c r="B54" s="65"/>
       <c r="C54" s="50"/>
@@ -4480,7 +4547,7 @@
       <c r="R54" s="63"/>
       <c r="S54" s="63"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="64"/>
       <c r="B55" s="65"/>
       <c r="C55" s="50"/>
@@ -4501,7 +4568,7 @@
       <c r="R55" s="63"/>
       <c r="S55" s="63"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="64"/>
       <c r="B56" s="65"/>
       <c r="C56" s="50"/>
@@ -4522,7 +4589,7 @@
       <c r="R56" s="63"/>
       <c r="S56" s="63"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="64"/>
       <c r="B57" s="65"/>
       <c r="C57" s="50"/>
@@ -4543,7 +4610,7 @@
       <c r="R57" s="63"/>
       <c r="S57" s="63"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="64"/>
       <c r="B58" s="65"/>
       <c r="C58" s="50"/>
@@ -4564,7 +4631,7 @@
       <c r="R58" s="63"/>
       <c r="S58" s="63"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="64"/>
       <c r="B59" s="65"/>
       <c r="C59" s="50"/>
@@ -4585,7 +4652,7 @@
       <c r="R59" s="63"/>
       <c r="S59" s="63"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="64"/>
       <c r="B60" s="65"/>
       <c r="C60" s="50"/>
@@ -4606,7 +4673,7 @@
       <c r="R60" s="63"/>
       <c r="S60" s="63"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="64"/>
       <c r="B61" s="65"/>
       <c r="C61" s="50"/>
@@ -4627,7 +4694,7 @@
       <c r="R61" s="63"/>
       <c r="S61" s="63"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="64"/>
       <c r="B62" s="64"/>
       <c r="C62" s="50"/>
@@ -4648,7 +4715,7 @@
       <c r="R62" s="63"/>
       <c r="S62" s="63"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="64"/>
       <c r="B63" s="64"/>
       <c r="C63" s="50"/>
@@ -4669,7 +4736,7 @@
       <c r="R63" s="63"/>
       <c r="S63" s="63"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="64"/>
       <c r="B64" s="64"/>
       <c r="C64" s="23"/>
@@ -4690,7 +4757,7 @@
       <c r="R64" s="63"/>
       <c r="S64" s="63"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="64"/>
       <c r="B65" s="65"/>
       <c r="C65" s="50"/>
@@ -4711,7 +4778,7 @@
       <c r="R65" s="63"/>
       <c r="S65" s="63"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="64"/>
       <c r="B66" s="65"/>
       <c r="C66" s="50"/>
@@ -4732,7 +4799,7 @@
       <c r="R66" s="63"/>
       <c r="S66" s="63"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="64"/>
       <c r="B67" s="65"/>
       <c r="C67" s="50"/>
@@ -4753,7 +4820,7 @@
       <c r="R67" s="63"/>
       <c r="S67" s="63"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="64"/>
       <c r="B68" s="65"/>
       <c r="C68" s="50"/>
@@ -4774,7 +4841,7 @@
       <c r="R68" s="63"/>
       <c r="S68" s="63"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="64"/>
       <c r="B69" s="65"/>
       <c r="C69" s="50"/>
@@ -4795,7 +4862,7 @@
       <c r="R69" s="63"/>
       <c r="S69" s="63"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="64"/>
       <c r="B70" s="65"/>
       <c r="C70" s="50"/>
@@ -4816,7 +4883,7 @@
       <c r="R70" s="63"/>
       <c r="S70" s="63"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="64"/>
       <c r="B71" s="65"/>
       <c r="C71" s="50"/>
@@ -4837,7 +4904,7 @@
       <c r="R71" s="63"/>
       <c r="S71" s="63"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="64"/>
       <c r="B72" s="65"/>
       <c r="C72" s="50"/>
@@ -4858,7 +4925,7 @@
       <c r="R72" s="63"/>
       <c r="S72" s="63"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="64"/>
       <c r="B73" s="65"/>
       <c r="C73" s="50"/>
@@ -4879,7 +4946,7 @@
       <c r="R73" s="63"/>
       <c r="S73" s="63"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="63"/>
       <c r="B74" s="63"/>
       <c r="C74" s="63"/>
@@ -4902,6 +4969,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="B3:B7"/>
@@ -4914,11 +4986,6 @@
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4926,27 +4993,1862 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4685860D-748F-432D-83C3-FCC8BA9A076A}">
+  <dimension ref="A1:S34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="104"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="16">
+        <f>AVERAGE(E3:H3)</f>
+        <v>0.79964999999999997</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.78480000000000005</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.81979999999999997</v>
+      </c>
+      <c r="I3" s="21" cm="1">
+        <f t="array" ref="I3">AVERAGE(ABS(J3:M3))</f>
+        <v>0.15640000000000001</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.2535</v>
+      </c>
+      <c r="K3" s="14">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="N3" s="21" cm="1">
+        <f t="array" ref="N3">AVERAGE(ABS(O3:R3))</f>
+        <v>0.20395000000000002</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0.1704</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0.161</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="E4" s="50">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="F4" s="50">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="G4" s="50">
+        <v>0.82020000000000004</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.81830000000000003</v>
+      </c>
+      <c r="I4" s="21" cm="1">
+        <f t="array" ref="I4">AVERAGE(ABS(J4:M4))</f>
+        <v>0.18814999999999998</v>
+      </c>
+      <c r="J4" s="50">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0.2606</v>
+      </c>
+      <c r="L4" s="50">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="M4" s="8">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="N4" s="21" cm="1">
+        <f t="array" ref="N4">AVERAGE(ABS(O4:R4))</f>
+        <v>0.26947500000000002</v>
+      </c>
+      <c r="O4" s="50">
+        <v>0.4325</v>
+      </c>
+      <c r="P4" s="50">
+        <v>0.40260000000000001</v>
+      </c>
+      <c r="Q4" s="50">
+        <v>0.1225</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.1203</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="E5" s="50">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="F5" s="50">
+        <v>0.67630000000000001</v>
+      </c>
+      <c r="G5" s="50">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.73919999999999997</v>
+      </c>
+      <c r="I5" s="21" cm="1">
+        <f t="array" ref="I5">AVERAGE(ABS(J5:M5))</f>
+        <v>1.4924999999999999E-2</v>
+      </c>
+      <c r="J5" s="50">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K5" s="50">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="L5" s="50">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="N5" s="21" cm="1">
+        <f t="array" ref="N5">AVERAGE(ABS(O5:R5))</f>
+        <v>2.9199999999999997E-2</v>
+      </c>
+      <c r="O5" s="50">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="P5" s="50">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q5" s="50">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="R5" s="8">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0.78220000000000001</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="I6" s="19" cm="1">
+        <f t="array" ref="I6">AVERAGE(ABS(J6:M6))</f>
+        <v>0.12712499999999999</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="N6" s="19" cm="1">
+        <f t="array" ref="N6">AVERAGE(ABS(O6:R6))</f>
+        <v>0.15962500000000002</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.2225</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>0.1145</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="106"/>
+      <c r="B7" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="16">
+        <f>AVERAGE(E7:H7)</f>
+        <v>0.78494999999999993</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="I7" s="35" cm="1">
+        <f t="array" ref="I7">AVERAGE(ABS(J7:M7))</f>
+        <v>0.12275000000000001</v>
+      </c>
+      <c r="J7" s="40">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0.222</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="M7" s="41">
+        <v>0.1134</v>
+      </c>
+      <c r="N7" s="21" cm="1">
+        <f t="array" ref="N7">AVERAGE(ABS(O7:R7))</f>
+        <v>4.4775000000000002E-2</v>
+      </c>
+      <c r="O7" s="17">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="P7" s="17">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="R7" s="12">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="35" cm="1">
+        <f t="array" ref="I8">AVERAGE(ABS(J8:M8))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="21" cm="1">
+        <f t="array" ref="N8">AVERAGE(ABS(O8:R8))</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="E9" s="50">
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="F9" s="50">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="G9" s="50">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="I9" s="35" cm="1">
+        <f t="array" ref="I9">AVERAGE(ABS(J9:M9))</f>
+        <v>2.3274999999999997E-2</v>
+      </c>
+      <c r="J9" s="31">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="K9" s="31">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="L9" s="31">
+        <v>2.58E-2</v>
+      </c>
+      <c r="M9" s="34">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="N9" s="21" cm="1">
+        <f t="array" ref="N9">AVERAGE(ABS(O9:R9))</f>
+        <v>6.5125000000000002E-2</v>
+      </c>
+      <c r="O9" s="50">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="P9" s="50">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="Q9" s="50">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="R9" s="8">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="106"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="42">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.7661</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.77939999999999998</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.79059999999999997</v>
+      </c>
+      <c r="I10" s="38" cm="1">
+        <f t="array" ref="I10">AVERAGE(ABS(J10:M10))</f>
+        <v>5.9624999999999997E-2</v>
+      </c>
+      <c r="J10" s="36">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K10" s="36">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L10" s="36">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="M10" s="37">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="N10" s="19" cm="1">
+        <f t="array" ref="N10">AVERAGE(ABS(O10:R10))</f>
+        <v>4.1575000000000001E-2</v>
+      </c>
+      <c r="O10" s="18">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="P10" s="18">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="R10" s="9">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="106"/>
+      <c r="B11" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="16">
+        <f>AVERAGE(E11:H11)</f>
+        <v>0.79275000000000007</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.753</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="I11" s="20" cm="1">
+        <f t="array" ref="I11">AVERAGE(ABS(J11:M11))</f>
+        <v>4.1950000000000001E-2</v>
+      </c>
+      <c r="J11" s="17">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="K11" s="17">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="L11" s="17">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="N11" s="35" cm="1">
+        <f t="array" ref="N11">AVERAGE(ABS(O11:R11))</f>
+        <v>9.4950000000000007E-2</v>
+      </c>
+      <c r="O11" s="40">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="P11" s="40">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R11" s="41">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="E12" s="50">
+        <v>0.7792</v>
+      </c>
+      <c r="F12" s="50">
+        <v>0.77739999999999998</v>
+      </c>
+      <c r="G12" s="50">
+        <v>0.82</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.81530000000000002</v>
+      </c>
+      <c r="I12" s="21" cm="1">
+        <f t="array" ref="I12">AVERAGE(ABS(J12:M12))</f>
+        <v>3.6574999999999996E-2</v>
+      </c>
+      <c r="J12" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="K12" s="50">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="L12" s="50">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="N12" s="35" cm="1">
+        <f t="array" ref="N12">AVERAGE(ABS(O12:R12))</f>
+        <v>0.1069</v>
+      </c>
+      <c r="O12" s="31">
+        <v>0.1295</v>
+      </c>
+      <c r="P12" s="31">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="Q12" s="31">
+        <v>0.1181</v>
+      </c>
+      <c r="R12" s="34">
+        <v>0.1164</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="E13" s="50">
+        <v>0.70809999999999995</v>
+      </c>
+      <c r="F13" s="50">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="G13" s="50">
+        <v>0.748</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.74880000000000002</v>
+      </c>
+      <c r="I13" s="21" cm="1">
+        <f t="array" ref="I13">AVERAGE(ABS(J13:M13))</f>
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="J13" s="50">
+        <v>1.14E-2</v>
+      </c>
+      <c r="K13" s="50">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="L13" s="50">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="M13" s="8">
+        <v>4.99E-2</v>
+      </c>
+      <c r="N13" s="35" cm="1">
+        <f t="array" ref="N13">AVERAGE(ABS(O13:R13))</f>
+        <v>6.4024999999999999E-2</v>
+      </c>
+      <c r="O13" s="31">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="P13" s="31">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="R13" s="34">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="42">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.78359999999999996</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.78220000000000001</v>
+      </c>
+      <c r="I14" s="19" cm="1">
+        <f t="array" ref="I14">AVERAGE(ABS(J14:M14))</f>
+        <v>4.0724999999999997E-2</v>
+      </c>
+      <c r="J14" s="18">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="K14" s="18">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="L14" s="18">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="M14" s="9">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="N14" s="38" cm="1">
+        <f t="array" ref="N14">AVERAGE(ABS(O14:R14))</f>
+        <v>9.6974999999999992E-2</v>
+      </c>
+      <c r="O14" s="36">
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="P14" s="36">
+        <v>0.1188</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>5.21E-2</v>
+      </c>
+      <c r="R14" s="37">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+      <c r="B15" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="16">
+        <f>AVERAGE(E15:H15)</f>
+        <v>0.78720000000000012</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.753</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" ref="I15:I17" si="0">AVERAGE(ABS(K15), ABS(M15))</f>
+        <v>1.7250000000000001E-2</v>
+      </c>
+      <c r="J15" s="40">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="K15" s="17">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="L15" s="40">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="N15" s="21">
+        <f t="shared" ref="N15:N17" si="1">AVERAGE(ABS(O15),ABS(Q15))</f>
+        <v>4.6550000000000001E-2</v>
+      </c>
+      <c r="O15" s="17">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="P15" s="40">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="R15" s="41">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="E16" s="50">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="F16" s="50">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="G16" s="50">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="0"/>
+        <v>7.5050000000000006E-2</v>
+      </c>
+      <c r="J16" s="31">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.1303</v>
+      </c>
+      <c r="L16" s="31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M16" s="8">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="N16" s="21">
+        <f>AVERAGE(ABS(O16),ABS(Q16))</f>
+        <v>0.10385</v>
+      </c>
+      <c r="O16" s="50">
+        <v>0.1154</v>
+      </c>
+      <c r="P16" s="31">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="Q16" s="50">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="R16" s="34">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="103"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="F17" s="50">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G17" s="50">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="0"/>
+        <v>3.1350000000000003E-2</v>
+      </c>
+      <c r="J17" s="31">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="K17" s="50">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L17" s="31">
+        <v>2.29E-2</v>
+      </c>
+      <c r="M17" s="8">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="N17" s="21">
+        <f t="shared" si="1"/>
+        <v>6.7099999999999993E-2</v>
+      </c>
+      <c r="O17" s="50">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="P17" s="31">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="Q17" s="50">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="R17" s="34">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="107"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="87">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="E18" s="83">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="F18" s="83">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="G18" s="83">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="H18" s="84">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="I18" s="88">
+        <f>AVERAGE(ABS(K18), ABS(M18))</f>
+        <v>2.2150000000000003E-2</v>
+      </c>
+      <c r="J18" s="32">
+        <v>1.44E-2</v>
+      </c>
+      <c r="K18" s="83">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="L18" s="32">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="M18" s="84">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="N18" s="89">
+        <f>AVERAGE(ABS(O18),ABS(Q18))</f>
+        <v>4.0250000000000001E-2</v>
+      </c>
+      <c r="O18" s="83">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="P18" s="32">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Q18" s="83">
+        <v>2.12E-2</v>
+      </c>
+      <c r="R18" s="39">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="S18" s="84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="16">
+        <f>AVERAGE(E19:H19)</f>
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="I19" s="22" cm="1">
+        <f t="array" ref="I19">AVERAGE(ABS(J19:M19))</f>
+        <v>0.27415000000000006</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0.1074</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0.31180000000000002</v>
+      </c>
+      <c r="M19" s="11">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="N19" s="21" cm="1">
+        <f t="array" ref="N19">AVERAGE(ABS(O19:R19))</f>
+        <v>0.28819999999999996</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0.67820000000000003</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0.1293</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0.31409999999999999</v>
+      </c>
+      <c r="R19" s="11">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="21" cm="1">
+        <f t="array" ref="I20">AVERAGE(ABS(J20:M20))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="21" cm="1">
+        <f t="array" ref="N20">AVERAGE(ABS(O20:R20))</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="E21" s="50">
+        <v>0.64880000000000004</v>
+      </c>
+      <c r="F21" s="50">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="G21" s="50">
+        <v>0.69369999999999998</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.67730000000000001</v>
+      </c>
+      <c r="I21" s="21" cm="1">
+        <f t="array" ref="I21">AVERAGE(ABS(J21:M21))</f>
+        <v>0.16997499999999999</v>
+      </c>
+      <c r="J21" s="50">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="K21" s="50">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="L21" s="50">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="N21" s="21" cm="1">
+        <f t="array" ref="N21">AVERAGE(ABS(O21:R21))</f>
+        <v>0.17595000000000002</v>
+      </c>
+      <c r="O21" s="50">
+        <v>0.24590000000000001</v>
+      </c>
+      <c r="P21" s="50">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Q21" s="50">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0.1762</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="42">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.64459999999999995</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0.6653</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="I22" s="19" cm="1">
+        <f t="array" ref="I22">AVERAGE(ABS(J22:M22))</f>
+        <v>0.25057499999999999</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0.4466</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="L22" s="18">
+        <v>0.2389</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="N22" s="19" cm="1">
+        <f t="array" ref="N22">AVERAGE(ABS(O22:R22))</f>
+        <v>0.25697500000000001</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.48130000000000001</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0.15310000000000001</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0.1487</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="106"/>
+      <c r="B23" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="16">
+        <f>AVERAGE(E23:H23)</f>
+        <v>0.56682500000000002</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.49170000000000003</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="I23" s="35" cm="1">
+        <f t="array" ref="I23">AVERAGE(ABS(J23:M23))</f>
+        <v>5.1450000000000003E-2</v>
+      </c>
+      <c r="J23" s="40">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="K23" s="40">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L23" s="40">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="M23" s="41">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="N23" s="21" cm="1">
+        <f t="array" ref="N23">AVERAGE(ABS(O23:R23))</f>
+        <v>5.5299999999999995E-2</v>
+      </c>
+      <c r="O23" s="25">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="P23" s="25">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="R23" s="26">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="106"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="35" cm="1">
+        <f t="array" ref="I24">AVERAGE(ABS(J24:M24))</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="21" cm="1">
+        <f t="array" ref="N24">AVERAGE(ABS(O24:R24))</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="106"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="47">
+        <v>0.65010000000000001</v>
+      </c>
+      <c r="E25" s="47">
+        <v>0.65290000000000004</v>
+      </c>
+      <c r="F25" s="47">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G25" s="47">
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="H25" s="47">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="I25" s="35" cm="1">
+        <f t="array" ref="I25">AVERAGE(ABS(J26:M26))</f>
+        <v>8.0749999999999988E-2</v>
+      </c>
+      <c r="J25" s="79">
+        <v>0.2205</v>
+      </c>
+      <c r="K25" s="79">
+        <v>1.26E-2</v>
+      </c>
+      <c r="L25" s="79">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="M25" s="79">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="N25" s="21" cm="1">
+        <f t="array" ref="N25">AVERAGE(ABS(O25:R25))</f>
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="O25" s="23">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="P25" s="23">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>0.22639999999999999</v>
+      </c>
+      <c r="R25" s="24">
+        <v>0.16719999999999999</v>
+      </c>
+      <c r="S25" s="81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="106"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="E26" s="50">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="F26" s="50">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G26" s="50">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="I26" s="38" cm="1">
+        <f t="array" ref="I26">AVERAGE(ABS(J26:M26))</f>
+        <v>8.0749999999999988E-2</v>
+      </c>
+      <c r="J26" s="31">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="K26" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="L26" s="31">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="M26" s="34">
+        <v>0.1303</v>
+      </c>
+      <c r="N26" s="19" cm="1">
+        <f t="array" ref="N26">AVERAGE(ABS(O26:R26))</f>
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="O26" s="23">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="P26" s="23">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="R26" s="24">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="106"/>
+      <c r="B27" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="80">
+        <f>AVERAGE(E27:H27)</f>
+        <v>0.62562499999999999</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="I27" s="21" cm="1">
+        <f t="array" ref="I27">AVERAGE(ABS(J27:M27))</f>
+        <v>4.3275000000000001E-2</v>
+      </c>
+      <c r="J27" s="17">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="K27" s="17">
+        <v>0.1089</v>
+      </c>
+      <c r="L27" s="17">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33" cm="1">
+        <f t="array" ref="N27">AVERAGE(ABS(O27:R27))</f>
+        <v>5.57E-2</v>
+      </c>
+      <c r="O27" s="40">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="P27" s="40">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="Q27" s="40">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="R27" s="41">
+        <v>0</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="106"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="21" cm="1">
+        <f t="array" ref="I28">AVERAGE(ABS(J28:M28))</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="35" cm="1">
+        <f t="array" ref="N28">AVERAGE(ABS(O28:R28))</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="106"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.65229999999999999</v>
+      </c>
+      <c r="E29" s="50">
+        <v>0.61980000000000002</v>
+      </c>
+      <c r="F29" s="50">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="G29" s="50">
+        <v>0.69369999999999998</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.68640000000000001</v>
+      </c>
+      <c r="I29" s="21" cm="1">
+        <f t="array" ref="I29">AVERAGE(ABS(J29:M29))</f>
+        <v>0.19390000000000002</v>
+      </c>
+      <c r="J29" s="50">
+        <v>0.26240000000000002</v>
+      </c>
+      <c r="K29" s="50">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="L29" s="50">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0.2051</v>
+      </c>
+      <c r="N29" s="35" cm="1">
+        <f t="array" ref="N29">AVERAGE(ABS(O29:R29))</f>
+        <v>0.19427500000000003</v>
+      </c>
+      <c r="O29" s="31">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="P29" s="31">
+        <v>0.1047</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="R29" s="34">
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="106"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="42">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="I30" s="19" cm="1">
+        <f t="array" ref="I30">AVERAGE(ABS(J30:M30))</f>
+        <v>0.108725</v>
+      </c>
+      <c r="J30" s="50">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="K30" s="50">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="L30" s="50">
+        <v>0.12330000000000001</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="N30" s="38" cm="1">
+        <f t="array" ref="N30">AVERAGE(ABS(O30:R30))</f>
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="O30" s="36">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="P30" s="36">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q30" s="36">
+        <v>0.1489</v>
+      </c>
+      <c r="R30" s="37">
+        <v>0.1142</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="106"/>
+      <c r="B31" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="16">
+        <f>AVERAGE(E31:H31)</f>
+        <v>0.60112499999999991</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0.49170000000000003</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="I31" s="21">
+        <f t="shared" ref="I31:I34" si="2">AVERAGE(ABS(K31), ABS(M31))</f>
+        <v>5.4449999999999998E-2</v>
+      </c>
+      <c r="J31" s="40">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="K31" s="17">
+        <v>0.1089</v>
+      </c>
+      <c r="L31" s="40">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+      <c r="N31" s="20">
+        <f t="shared" ref="N31:N34" si="3">AVERAGE(ABS(O31),ABS(Q31))</f>
+        <v>5.3849999999999995E-2</v>
+      </c>
+      <c r="O31" s="17">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="P31" s="40">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="R31" s="41">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="106"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="31"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="50"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="106"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="E33" s="50">
+        <v>0.62809999999999999</v>
+      </c>
+      <c r="F33" s="50">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="G33" s="50">
+        <v>0.69369999999999998</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0.68640000000000001</v>
+      </c>
+      <c r="I33" s="21">
+        <f t="shared" si="2"/>
+        <v>0.1469</v>
+      </c>
+      <c r="J33" s="31">
+        <v>0.26040000000000002</v>
+      </c>
+      <c r="K33" s="50">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="L33" s="31">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0.2051</v>
+      </c>
+      <c r="N33" s="21">
+        <f t="shared" si="3"/>
+        <v>0.25385000000000002</v>
+      </c>
+      <c r="O33" s="50">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="P33" s="31">
+        <v>0.1047</v>
+      </c>
+      <c r="Q33" s="50">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="R33" s="34">
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="106"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="90">
+        <v>0.6663</v>
+      </c>
+      <c r="E34" s="85">
+        <v>0.64880000000000004</v>
+      </c>
+      <c r="F34" s="85">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="G34" s="85">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="H34" s="86">
+        <v>0.71389999999999998</v>
+      </c>
+      <c r="I34" s="91">
+        <f t="shared" si="2"/>
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="J34" s="36">
+        <v>0.1108</v>
+      </c>
+      <c r="K34" s="85">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="L34" s="36">
+        <v>0.1522</v>
+      </c>
+      <c r="M34" s="86">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="N34" s="91">
+        <f t="shared" si="3"/>
+        <v>0.11695</v>
+      </c>
+      <c r="O34" s="85">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P34" s="36">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q34" s="85">
+        <v>0.16389999999999999</v>
+      </c>
+      <c r="R34" s="37">
+        <v>0.1027</v>
+      </c>
+      <c r="S34" s="86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4234CCFA-4384-47AD-A297-60A3FB130AED}">
   <dimension ref="B3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.88671875" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="69"/>
-    <col min="5" max="6" width="12.5546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="69"/>
-    <col min="8" max="8" width="10.6640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" style="69"/>
-    <col min="12" max="12" width="17.88671875" style="69" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="69"/>
+    <col min="1" max="2" width="11.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="69"/>
+    <col min="5" max="6" width="12.5703125" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="69"/>
+    <col min="8" max="8" width="10.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.85546875" style="69"/>
+    <col min="12" max="12" width="17.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="69"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="98" t="s">
         <v>86</v>
       </c>
@@ -4963,7 +6865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="100">
         <v>10</v>
       </c>
@@ -4980,7 +6882,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="93">
         <v>20</v>
       </c>
@@ -4998,7 +6900,7 @@
       </c>
       <c r="G5" s="94"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="93">
         <v>30</v>
       </c>
@@ -5015,7 +6917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="93">
         <v>40</v>
       </c>
@@ -5032,7 +6934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="93">
         <v>50</v>
       </c>
@@ -5049,7 +6951,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="93">
         <v>60</v>
       </c>
@@ -5066,7 +6968,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="93">
         <v>70</v>
       </c>
@@ -5083,7 +6985,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="93">
         <v>80</v>
       </c>
@@ -5100,7 +7002,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="93">
         <v>90</v>
       </c>
@@ -5117,7 +7019,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="96">
         <v>100</v>
       </c>
@@ -5134,25 +7036,25 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="101"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="101"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="101"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="101"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="101"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="101"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="101"/>
     </row>
   </sheetData>
@@ -5161,7 +7063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D43789-1003-47D8-B7A4-FDE215F69927}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -5169,24 +7071,24 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -5197,54 +7099,54 @@
       <c r="I1" s="57"/>
       <c r="J1" s="57"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="119" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="61"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="119"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="120"/>
       <c r="K3" s="61"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="110" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -5277,8 +7179,8 @@
       <c r="K4" s="62"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="111"/>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="112"/>
       <c r="B5" s="56" t="s">
         <v>8</v>
       </c>
@@ -5309,8 +7211,8 @@
       <c r="K5" s="62"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="113" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -5343,8 +7245,8 @@
       <c r="K6" s="62"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="113"/>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="114"/>
       <c r="B7" s="56" t="s">
         <v>49</v>
       </c>
@@ -5376,7 +7278,7 @@
       <c r="L7" s="2"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5388,7 +7290,7 @@
       <c r="I9" s="3"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5402,7 +7304,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="74"/>
       <c r="C11" s="74"/>
@@ -5416,7 +7318,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
@@ -5430,7 +7332,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="74"/>
       <c r="B13" s="43"/>
       <c r="C13" s="69"/>
@@ -5444,7 +7346,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="74"/>
       <c r="B14" s="43"/>
       <c r="C14" s="69"/>
@@ -5458,7 +7360,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="74"/>
       <c r="B15" s="43"/>
       <c r="C15" s="69"/>
@@ -5472,7 +7374,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="74"/>
       <c r="B16" s="43"/>
       <c r="C16" s="69"/>
@@ -5486,7 +7388,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="74"/>
       <c r="B17" s="43"/>
       <c r="C17" s="69"/>
@@ -5500,7 +7402,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="74"/>
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
@@ -5514,7 +7416,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="74"/>
       <c r="B19" s="43"/>
       <c r="C19" s="69"/>
@@ -5528,7 +7430,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="74"/>
       <c r="B20" s="43"/>
       <c r="C20" s="69"/>
@@ -5540,7 +7442,7 @@
       <c r="I20" s="69"/>
       <c r="J20" s="69"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="74"/>
       <c r="B21" s="43"/>
       <c r="C21" s="69"/>
@@ -5552,7 +7454,7 @@
       <c r="I21" s="69"/>
       <c r="J21" s="69"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="74"/>
       <c r="B22" s="43"/>
       <c r="C22" s="69"/>
@@ -5564,7 +7466,7 @@
       <c r="I22" s="69"/>
       <c r="J22" s="69"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5576,7 +7478,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -5588,7 +7490,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5613,7 +7515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CB67BF-127B-4021-B2A8-C5548DD60BCF}">
   <dimension ref="A1:AD32"/>
   <sheetViews>
@@ -5621,9 +7523,9 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>32</v>
       </c>
@@ -5715,7 +7617,7 @@
         <v>-0.15260000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -5807,7 +7709,7 @@
         <v>-0.14319999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5899,7 +7801,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -5991,7 +7893,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -6083,7 +7985,7 @@
         <v>-0.1489</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -6175,7 +8077,7 @@
         <v>-0.1489</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -6267,7 +8169,7 @@
         <v>-0.12809999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6359,7 +8261,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -6451,7 +8353,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -6543,7 +8445,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -6635,7 +8537,7 @@
         <v>-0.17749999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -6727,7 +8629,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -6819,7 +8721,7 @@
         <v>-0.1489</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -6911,7 +8813,7 @@
         <v>-0.15260000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -7003,7 +8905,7 @@
         <v>-0.17749999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -7095,7 +8997,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -7187,7 +9089,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -7279,7 +9181,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -7371,7 +9273,7 @@
         <v>-0.124</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -7463,7 +9365,7 @@
         <v>-0.14319999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -7555,7 +9457,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -7647,7 +9549,7 @@
         <v>-0.14319999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -7739,7 +9641,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -7831,7 +9733,7 @@
         <v>-0.13550000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -7923,7 +9825,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -8015,7 +9917,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -8107,7 +10009,7 @@
         <v>-0.16039999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -8199,7 +10101,7 @@
         <v>-0.1661</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -8291,7 +10193,7 @@
         <v>-0.13750000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -8383,7 +10285,7 @@
         <v>-0.1298</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -8475,7 +10377,7 @@
         <v>-0.1069</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -8575,7 +10477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2E10AC-E371-4D98-BF31-52E7F256EECC}">
   <dimension ref="A1:AD33"/>
   <sheetViews>
@@ -8583,9 +10485,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>32</v>
       </c>
@@ -8677,7 +10579,7 @@
         <v>-0.19120000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -8769,7 +10671,7 @@
         <v>-0.19040000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -8861,7 +10763,7 @@
         <v>-0.151</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -8953,7 +10855,7 @@
         <v>-0.15340000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -9045,7 +10947,7 @@
         <v>-0.1449</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -9137,7 +11039,7 @@
         <v>-0.1477</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -9229,7 +11131,7 @@
         <v>-0.15790000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -9321,7 +11223,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -9413,7 +11315,7 @@
         <v>-0.155</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -9505,7 +11407,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -9597,7 +11499,7 @@
         <v>-9.2200000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -9689,7 +11591,7 @@
         <v>-0.16839999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -9781,7 +11683,7 @@
         <v>-8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -9873,7 +11775,7 @@
         <v>-0.1145</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -9965,7 +11867,7 @@
         <v>-0.15459999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -10057,7 +11959,7 @@
         <v>-0.13650000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -10149,7 +12051,7 @@
         <v>-8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -10241,7 +12143,7 @@
         <v>-4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -10333,7 +12235,7 @@
         <v>-0.14080000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -10425,7 +12327,7 @@
         <v>-0.17610000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -10517,7 +12419,7 @@
         <v>-0.13739999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -10609,7 +12511,7 @@
         <v>-1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -10701,7 +12603,7 @@
         <v>-0.17330000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -10793,7 +12695,7 @@
         <v>-0.1545</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -10885,7 +12787,7 @@
         <v>-0.1641</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -10977,7 +12879,7 @@
         <v>-4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -11069,7 +12971,7 @@
         <v>-0.18090000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -11161,7 +13063,7 @@
         <v>-0.1953</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -11253,7 +13155,7 @@
         <v>-0.21210000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -11345,7 +13247,7 @@
         <v>-0.2147</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -11437,7 +13339,7 @@
         <v>-9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -11529,7 +13431,7 @@
         <v>-8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
